--- a/TestData/Web_POS/Order/order_option_test_data.xlsx
+++ b/TestData/Web_POS/Order/order_option_test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61" count="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85" count="346">
   <si>
     <t>TC_Id</t>
   </si>
@@ -197,6 +197,78 @@
   </si>
   <si>
     <t>userone_p5</t>
+  </si>
+  <si>
+    <t>1000 : 1</t>
+  </si>
+  <si>
+    <t>600 : 1</t>
+  </si>
+  <si>
+    <t>1001 : 1</t>
+  </si>
+  <si>
+    <t>1002 : 1</t>
+  </si>
+  <si>
+    <t>1003 : 1</t>
+  </si>
+  <si>
+    <t>1004 : 1</t>
+  </si>
+  <si>
+    <t>1005 : 1</t>
+  </si>
+  <si>
+    <t>1006 : 1</t>
+  </si>
+  <si>
+    <t>1007 : 1</t>
+  </si>
+  <si>
+    <t>1008 : 1</t>
+  </si>
+  <si>
+    <t>1009 : 1</t>
+  </si>
+  <si>
+    <t>1010 : 1</t>
+  </si>
+  <si>
+    <t>1011 : 1</t>
+  </si>
+  <si>
+    <t>601 : 1</t>
+  </si>
+  <si>
+    <t>602 : 1</t>
+  </si>
+  <si>
+    <t>603 : 1</t>
+  </si>
+  <si>
+    <t>604 : 1</t>
+  </si>
+  <si>
+    <t>605 : 1</t>
+  </si>
+  <si>
+    <t>606 : 1</t>
+  </si>
+  <si>
+    <t>607 : 1</t>
+  </si>
+  <si>
+    <t>608 : 1</t>
+  </si>
+  <si>
+    <t>609 : 1</t>
+  </si>
+  <si>
+    <t>610 : 1</t>
+  </si>
+  <si>
+    <t>611 : 1</t>
   </si>
 </sst>
 </file>
@@ -635,10 +707,10 @@
         <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>30</v>
@@ -707,10 +779,10 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>30</v>
@@ -779,10 +851,10 @@
         <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>30</v>
@@ -851,10 +923,10 @@
         <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>30</v>
@@ -923,10 +995,10 @@
         <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
@@ -995,10 +1067,10 @@
         <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>30</v>
@@ -1067,10 +1139,10 @@
         <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>30</v>
@@ -1139,10 +1211,10 @@
         <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>30</v>
@@ -1211,10 +1283,10 @@
         <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>30</v>
@@ -1283,10 +1355,10 @@
         <v>26</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>30</v>
@@ -1355,10 +1427,10 @@
         <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>30</v>
@@ -1427,10 +1499,10 @@
         <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>30</v>

--- a/TestData/Web_POS/Order/order_option_test_data.xlsx
+++ b/TestData/Web_POS/Order/order_option_test_data.xlsx
@@ -295,9 +295,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -516,8 +514,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A5">
+      <selection activeCell="G14" sqref="G14:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -1574,8 +1572,8 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
